--- a/asrt_motor/sequences/percept_testing_sequence_file_list.xlsx
+++ b/asrt_motor/sequences/percept_testing_sequence_file_list.xlsx
@@ -443,35 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sequences/867746_percepttesting_sequence_00.csv</t>
+          <t>sequences/278857_percepttesting_sequence_00.csv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sequences/867746_percepttesting_sequence_01.csv</t>
+          <t>sequences/278857_percepttesting_sequence_01.csv</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sequences/867746_percepttesting_sequence_02.csv</t>
+          <t>sequences/278857_percepttesting_sequence_02.csv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sequences/867746_percepttesting_sequence_03.csv</t>
+          <t>sequences/278857_percepttesting_sequence_03.csv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sequences/867746_percepttesting_sequence_04.csv</t>
+          <t>sequences/278857_percepttesting_sequence_04.csv</t>
         </is>
       </c>
     </row>
